--- a/Input_files/Actual_testcases/Kaman/ECTEST/ALL_PAGES/END_TO_END/TC10_Verify_Search_results.xlsx
+++ b/Input_files/Actual_testcases/Kaman/ECTEST/ALL_PAGES/END_TO_END/TC10_Verify_Search_results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\Kaman_ECTEST_Sanity\Input_files\Actual_testcases\Kaman\ALL_PAGES\END_TO_END\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\KAMAN_ECTEST_IE_SANITY\Input_files\Actual_testcases\Kaman\ECTEST\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04762790-900C-4E32-A4F5-A9FA9C30BA80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8950C3BA-9B9B-4127-80D1-78CA71DA192B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,22 @@
     <sheet name="TC10_Verify_PDP_From_Search" sheetId="1" r:id="rId1"/>
     <sheet name="Testdata" sheetId="12" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>TestCase</t>
   </si>
@@ -59,9 +69,6 @@
     <t>ENTERTEXT</t>
   </si>
   <si>
-    <t>200CL</t>
-  </si>
-  <si>
     <t>CLICK</t>
   </si>
   <si>
@@ -74,9 +81,6 @@
     <t>SearchHeader</t>
   </si>
   <si>
-    <t>Showing Results for "200CL"</t>
-  </si>
-  <si>
     <t>PDPSearchHeader</t>
   </si>
   <si>
@@ -99,6 +103,21 @@
   </si>
   <si>
     <t>CLICK_PRE_ENTERTEXT</t>
+  </si>
+  <si>
+    <t>EleType1</t>
+  </si>
+  <si>
+    <t>EleType2</t>
+  </si>
+  <si>
+    <t>Showing Results for "200"</t>
+  </si>
+  <si>
+    <t>JSElement</t>
+  </si>
+  <si>
+    <t>TINY_SCROLL_DOWN</t>
   </si>
 </sst>
 </file>
@@ -514,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -548,7 +567,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -562,13 +581,13 @@
     <row r="3" spans="1:5">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -581,7 +600,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>9</v>
@@ -590,20 +609,20 @@
     <row r="5" spans="1:5">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
@@ -615,56 +634,65 @@
         <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.25" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="D8" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.25" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>22</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>18</v>
+      <c r="C11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -676,10 +704,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -701,20 +729,20 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
+      <c r="B3" s="3">
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3" t="b">
         <v>1</v>
@@ -722,18 +750,34 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" s="3" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -745,12 +789,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006B9247FD3B8DCE459B42E632A3609B44" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3308c0b5f2a874e4881ed9e3e8048963">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a153bf7-9590-4a62-91b6-0515f1c483dc" xmlns:ns3="fd27ab66-8f5a-4733-8e24-c3cb82244a05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afaafca1b8c32e4865f6f60996200392" ns2:_="" ns3:_="">
     <xsd:import namespace="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
@@ -947,16 +1000,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -965,7 +1017,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F47607-34AD-43FE-B910-18186D4DE9CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -982,12 +1034,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>